--- a/ETLPlanningWorksheets-DWandETLDesign.xlsx
+++ b/ETLPlanningWorksheets-DWandETLDesign.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_ClassFiles\_Microsoft\ETL with SSIS\_Module02\Lab\Exercise 3 - Creating ETL Select Statements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_ClassFiles\_Microsoft\ETL with SSIS\_Module02\Lab\Exercise 3 - Review the Developer Worksheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="18405" windowHeight="6945" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="18405" windowHeight="6945" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data Warehouse Design" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="354">
   <si>
     <t>tinyint</t>
   </si>
@@ -1020,12 +1020,6 @@
     <t>Keep for LAB1?</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Outside scope of Lab1</t>
-  </si>
-  <si>
     <t>dbo.DimDates.CalendarDate</t>
   </si>
   <si>
@@ -1063,9 +1057,6 @@
   </si>
   <si>
     <t>Join to Customers</t>
-  </si>
-  <si>
-    <t>Join to CustomerAddress</t>
   </si>
   <si>
     <t>Rename; Change null status; Change null value</t>
@@ -1102,7 +1093,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1210,21 +1201,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -1338,7 +1316,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1448,46 +1426,22 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1501,8 +1455,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF8C00"/>
       <color rgb="FFD2D2D2"/>
-      <color rgb="FFFF8C00"/>
       <color rgb="FFFFFC9E"/>
       <color rgb="FF4668C5"/>
       <color rgb="FF969696"/>
@@ -5265,10 +5219,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="B2:J77"/>
+  <dimension ref="B2:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G36" sqref="A4:G36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5349,48 +5303,48 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="49" t="s">
-        <v>346</v>
-      </c>
-      <c r="J7" s="49" t="s">
-        <v>344</v>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="F8" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -5403,12 +5357,12 @@
         <v>219</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
@@ -5417,7 +5371,7 @@
         <v>113</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>6</v>
@@ -5432,69 +5386,69 @@
         <v>219</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>337</v>
-      </c>
+      <c r="B10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J11" s="7"/>
+      <c r="B11" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>195</v>
+        <v>33</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>195</v>
+        <v>3</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>3</v>
@@ -5505,28 +5459,26 @@
       <c r="H12" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>286</v>
-      </c>
+      <c r="I12" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>3</v>
+      <c r="E13" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>224</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>113</v>
@@ -5535,13 +5487,15 @@
         <v>114</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="J13" s="7"/>
+        <v>190</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>6</v>
@@ -5550,7 +5504,7 @@
         <v>113</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>224</v>
@@ -5565,26 +5519,26 @@
         <v>190</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>336</v>
+        <v>41</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="34" t="s">
         <v>113</v>
       </c>
       <c r="H15" s="18" t="s">
@@ -5594,280 +5548,288 @@
         <v>190</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="40" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I16" s="13" t="s">
+      <c r="J18" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="I18" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>313</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="I19" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="40" t="s">
+      <c r="J22" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="F22" s="41" t="s">
+      <c r="G23" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="F24" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="I22" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="H23" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="J24" s="7"/>
+      <c r="G24" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J25" s="7"/>
+      <c r="B25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>208</v>
+        <v>113</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>113</v>
@@ -5875,644 +5837,642 @@
       <c r="H26" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="I26" s="34" t="s">
-        <v>198</v>
+      <c r="I26" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>145</v>
+        <v>17</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>251</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="34" t="s">
         <v>113</v>
       </c>
       <c r="H27" s="18" t="s">
         <v>114</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="J27" s="7"/>
+        <v>219</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="F28" s="13" t="s">
+      <c r="D32" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="F32" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I28" s="13" t="s">
+      <c r="G32" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="J32" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="F31" s="13" t="s">
+      <c r="D38" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="8" t="s">
+      <c r="G38" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="F32" s="13" t="s">
+      <c r="D39" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="50" t="s">
-        <v>350</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="52" t="s">
-        <v>351</v>
-      </c>
-      <c r="F35" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="H35" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="I35" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="F36" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="H36" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="I36" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="F37" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="G37" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="H37" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="I37" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="J37" s="7"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="F38" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="G38" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="H38" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="I38" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="J38" s="7"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="F39" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="G39" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="H39" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" s="46" t="s">
-        <v>332</v>
+      <c r="G39" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>217</v>
       </c>
       <c r="J39" s="7"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="4" t="s">
-        <v>192</v>
+      <c r="B40" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>324</v>
+        <v>212</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
+      <c r="G40" s="4"/>
       <c r="H40" s="22" t="s">
         <v>114</v>
       </c>
       <c r="I40" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I44" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="15"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J45" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="J40" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="D41" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="E41" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="F41" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="H41" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="I41" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="J41" s="7"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="I42" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="E43" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="F43" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="H43" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="I43" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="J43" s="7"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="F44" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="H44" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="I44" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="J44" s="7"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="11" t="s">
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I46" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F47" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="F45" s="16" t="s">
+      <c r="G47" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I47" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I48" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="F49" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G45" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H45" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="I45" s="16" t="s">
+      <c r="G49" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I49" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="E47" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="F47" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="H47" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="I47" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="J47" s="7"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="E48" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="F48" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="H48" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="I48" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="J48" s="7"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="J49" s="7"/>
+      <c r="J49" s="7" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>3</v>
@@ -6523,26 +6483,28 @@
       <c r="H50" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="I50" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="J50" s="7"/>
+      <c r="I50" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>113</v>
@@ -6550,26 +6512,28 @@
       <c r="H51" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="I51" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="J51" s="7"/>
+      <c r="I51" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>225</v>
+        <v>3</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>113</v>
@@ -6577,10 +6541,12 @@
       <c r="H52" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="I52" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="J52" s="7"/>
+      <c r="I52" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
@@ -6592,11 +6558,11 @@
       <c r="D53" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="E53" s="34" t="s">
-        <v>256</v>
+      <c r="E53" s="17" t="s">
+        <v>241</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G53" s="17" t="s">
         <v>113</v>
@@ -6605,27 +6571,27 @@
         <v>114</v>
       </c>
       <c r="I53" s="34" t="s">
-        <v>282</v>
+        <v>190</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>355</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>187</v>
+        <v>331</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>16</v>
+        <v>322</v>
       </c>
       <c r="G54" s="17" t="s">
         <v>113</v>
@@ -6633,26 +6599,28 @@
       <c r="H54" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="I54" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="J54" s="7"/>
+      <c r="I54" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>188</v>
+        <v>319</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>16</v>
+        <v>322</v>
       </c>
       <c r="G55" s="17" t="s">
         <v>113</v>
@@ -6660,627 +6628,17 @@
       <c r="H55" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="I55" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="J55" s="7"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="J56" s="7"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H57" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="J57" s="7"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H58" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I58" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="C59" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D59" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="E59" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="F59" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="H59" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="I59" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H60" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I60" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="E61" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="F61" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="G61" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="H61" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="I61" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="J61" s="7"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B62" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C62" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="E62" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="F62" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G62" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="H62" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="I62" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="J62" s="7"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H63" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I63" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="C64" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D64" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="E64" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="F64" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G64" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="H64" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="I64" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B65" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="C65" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D65" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="E65" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="F65" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G65" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="H65" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="I65" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="E66" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="F66" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="H66" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="I66" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="15"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B68" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G68" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H68" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="I68" s="38" t="s">
-        <v>311</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B69" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="F69" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H69" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="I69" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B70" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="F70" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H70" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="I70" s="38" t="s">
+      <c r="I55" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="J70" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B71" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="F71" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H71" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="I71" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B72" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H72" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="I72" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H73" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="I73" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B74" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="F74" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H74" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="I74" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="F75" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H75" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="I75" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E76" s="17" t="s">
+      <c r="J55" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="G76" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H76" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="I76" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="G77" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H77" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="I77" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B56" r:id="rId1"/>
-    <hyperlink ref="B49" r:id="rId2"/>
+    <hyperlink ref="B40" r:id="rId1"/>
+    <hyperlink ref="B33" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/ETLPlanningWorksheets-DWandETLDesign.xlsx
+++ b/ETLPlanningWorksheets-DWandETLDesign.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="18405" windowHeight="6945" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="18405" windowHeight="6945" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data Warehouse Design" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="360">
   <si>
     <t>tinyint</t>
   </si>
@@ -1087,6 +1087,24 @@
   </si>
   <si>
     <t>(NOTE: This is already done at the start of LAB 1)</t>
+  </si>
+  <si>
+    <t>ETLNullStatuses</t>
+  </si>
+  <si>
+    <t>dbo.ETLNullStatuses.NullStatusID</t>
+  </si>
+  <si>
+    <t>dbo.ETLNullStatuses.NullStatusName</t>
+  </si>
+  <si>
+    <t>dbo.ETLNullStatuses.NullStatusDescription</t>
+  </si>
+  <si>
+    <t>nvarchar (1000)</t>
+  </si>
+  <si>
+    <t>description about what a given null value represents</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1334,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1442,6 +1460,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5219,10 +5264,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="B2:J55"/>
+  <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6635,6 +6680,106 @@
         <v>333</v>
       </c>
     </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56" s="48"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="I56" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="J56" s="46" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C57" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="D57" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="E57" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="F57" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="H57" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="I57" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="J57" s="51"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B58" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="E58" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="F58" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="H58" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="I58" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="J58" s="51"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B59" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C59" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="E59" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="F59" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="G59" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="H59" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="I59" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="J59" s="51"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B40" r:id="rId1"/>
